--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23491955-DA5E-4C6A-B35A-D8DB76B52641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BC11E-1F56-4F34-90A8-69AA8AD73A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -458,6 +458,10 @@
   </si>
   <si>
     <t>63302001,63302002,63302003,63302004,64014101,64014201,64014301,64014401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖精通：使用法杖类武器伤害提升5%,装备精通：轻甲,双防光环：附近己方单位防御效果增加10%</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2371,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2820,7 +2824,7 @@
         <v>94</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>100</v>
